--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -199,7 +199,7 @@
     <t>Week: week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-06 12:48:29 PM</t>
+    <t>Generated: 2023-09-07 04:15:18 PM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -199,7 +199,7 @@
     <t>Week: week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-07 04:15:18 PM</t>
+    <t>Generated: 2023-09-08 11:48:59 AM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -199,7 +199,7 @@
     <t>Week: week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-08 11:48:59 AM</t>
+    <t>Generated: 2023-09-08 12:20:45 PM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
   <si>
     <t>Student ID</t>
   </si>
@@ -187,19 +187,16 @@
     <t>Riyas ahamed J</t>
   </si>
   <si>
-    <t>week03</t>
-  </si>
-  <si>
-    <t>Fibonacci_Sequence, Calculator, Tic_Tac_Toe, Generative AI</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Week: week03</t>
-  </si>
-  <si>
-    <t>Generated: 2023-09-08 12:20:45 PM</t>
+    <t>Week03</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Week: Week03</t>
+  </si>
+  <si>
+    <t>Generated: 2023-09-08 12:26:22 PM</t>
   </si>
 </sst>
 </file>
@@ -223,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF007BFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,11 +267,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,7 +576,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -597,452 +601,374 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
+      <c r="E8" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
+      <c r="E15" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>59</v>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
+      <c r="E17" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
+      <c r="E21" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
+      <c r="E22" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
+      <c r="E24" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>59</v>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
+      <c r="E26" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
   <si>
     <t>Student ID</t>
   </si>
@@ -190,13 +190,16 @@
     <t>Week03</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t>Fibonacci_Sequence, Calculator, Tic_Tac_Toe, Generative AI</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
   <si>
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-08 12:26:22 PM</t>
+    <t>Generated: 2023-09-08 12:30:15 PM</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,12 +233,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF007BFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,12 +264,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +572,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -601,374 +597,452 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>58</v>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>58</v>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>58</v>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>58</v>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>58</v>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>58</v>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>58</v>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>58</v>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>58</v>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>58</v>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>58</v>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>58</v>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>58</v>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>58</v>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -199,7 +199,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-08 12:30:15 PM</t>
+    <t>Generated: 2023-09-08 12:48:16 PM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
   <si>
     <t>Student ID</t>
   </si>
@@ -196,10 +196,13 @@
     <t>Pending</t>
   </si>
   <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-08 12:48:16 PM</t>
+    <t>Generated: 2023-09-09 10:15:16 PM</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF007BFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,11 +273,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,34 +641,28 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
+      <c r="E4" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -716,34 +720,28 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -767,17 +765,14 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1037,12 +1032,12 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -202,7 +202,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-09 10:15:16 PM</t>
+    <t>Generated: 2023-09-13 02:17:46 PM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
   <si>
     <t>Student ID</t>
   </si>
@@ -202,7 +202,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-13 02:17:46 PM</t>
+    <t>Generated: 2023-09-13 04:31:48 PM</t>
   </si>
 </sst>
 </file>
@@ -669,17 +669,14 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
   <si>
     <t>Student ID</t>
   </si>
@@ -202,7 +202,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-13 04:31:48 PM</t>
+    <t>Generated: 2023-09-14 10:47:40 AM</t>
   </si>
 </sst>
 </file>
@@ -745,17 +745,14 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
   <si>
     <t>Student ID</t>
   </si>
@@ -202,7 +202,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-14 10:47:40 AM</t>
+    <t>Generated: 2023-09-14 07:07:41 PM</t>
   </si>
 </sst>
 </file>
@@ -1011,17 +1011,14 @@
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
+      <c r="E27" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5">

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -202,7 +202,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-14 07:07:41 PM</t>
+    <t>Generated: 2023-09-15 11:34:41 AM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -202,7 +202,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-19 10:15:04 PM</t>
+    <t>Generated: 2023-09-27 09:11:17 PM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -202,7 +202,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-27 09:11:17 PM</t>
+    <t>Generated: 2023-09-28 11:46:32 AM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -202,7 +202,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-28 11:46:32 AM</t>
+    <t>Generated: 2023-09-28 04:28:32 PM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -202,7 +202,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-28 04:28:32 PM</t>
+    <t>Generated: 2023-09-30 11:21:49 AM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>Student ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Completion Status</t>
   </si>
   <si>
+    <t>Streak</t>
+  </si>
+  <si>
     <t>PPP001</t>
   </si>
   <si>
@@ -202,7 +205,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 11:21:49 AM</t>
+    <t>Generated: 2023-09-30 12:19:52 PM</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,9 +587,10 @@
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,433 +606,514 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 12:19:52 PM</t>
+    <t>Generated: 2023-09-30 01:54:09 PM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 01:54:09 PM</t>
+    <t>Generated: 2023-09-30 02:30:02 PM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
   <si>
     <t>Student ID</t>
   </si>
@@ -196,16 +196,19 @@
     <t>Fibonacci_Sequence, Calculator, Tic_Tac_Toe, Generative AI</t>
   </si>
   <si>
+    <t>Tic_Tac_Toe</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 02:30:02 PM</t>
+    <t>Generated: 2023-10-02 04:25:00 PM</t>
   </si>
 </sst>
 </file>
@@ -614,20 +617,17 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -644,7 +644,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1013,20 +1013,17 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
+      <c r="E23" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1043,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1053,20 +1050,17 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>60</v>
+      <c r="E25" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1083,7 +1077,7 @@
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1108,12 +1102,12 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 04:25:00 PM</t>
+    <t>Generated: 2023-10-02 04:51:08 PM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 04:51:08 PM</t>
+    <t>Generated: 2023-10-02 05:14:49 PM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 05:14:49 PM</t>
+    <t>Generated: 2023-10-02 05:38:17 PM</t>
   </si>
 </sst>
 </file>

--- a/week03_report.xlsx
+++ b/week03_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 05:38:17 PM</t>
+    <t>Generated: 2023-10-03 11:47:27 AM</t>
   </si>
 </sst>
 </file>
